--- a/Rerporte de Defectos e Issues.xlsx
+++ b/Rerporte de Defectos e Issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -90,6 +90,9 @@
   <si>
     <t>Ambos</t>
   </si>
+  <si>
+    <t>ITEM 1</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -227,8 +230,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +259,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
   </fills>
@@ -321,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -482,6 +496,9 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -628,7 +645,64 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7820025" cy="4143375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7648575" cy="4514850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10660,7 +10734,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>